--- a/DETAIL/GPL/SINLGE_BUG PER CAE/ENABLE NORMALIZATION/AGGREGATION ARITHMETIC MEAN/1wise/ranking_results.xlsx
+++ b/DETAIL/GPL/SINLGE_BUG PER CAE/ENABLE NORMALIZATION/AGGREGATION ARITHMETIC MEAN/1wise/ranking_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/DETAIL/GPL/SINLGE_BUG PER CAE/ENABLE NORMALIZATION/AGGREGATION ARITHMETIC MEAN/1wise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL_systems/VARCOP/DETAIL/GPL/SINLGE_BUG PER CAE/ENABLE NORMALIZATION/AGGREGATION ARITHMETIC MEAN/1wise/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="40" documentId="11_29DF3D1DC35C11E4BD5BDCED3FCBC41D13B6C5DC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{57477C82-51E2-F241-B0B9-4D631B90E962}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="15" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="15" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jaccard" sheetId="1" r:id="rId1"/>
@@ -46681,8 +46681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
